--- a/frontend-cemos/public/assets/content/direito/1-ema-135/script/vf2.xlsx
+++ b/frontend-cemos/public/assets/content/direito/1-ema-135/script/vf2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1717,19 +1717,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nos estreitos utilizados para a navegação internacional que asseguram a comunicação entre espaços de alto-mar ou Zonas Econômicas Exclusivas (ZEE), garante-se o direito de passagem em trânsito a navios e aeronaves, civis ou militares.</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>A "passagem em trânsito" é um direito que se aplica apenas a navios e aeronaves civis nos estreitos internacionais, enquanto os navios de guerra estão sujeitos à passagem inocente.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Garante-se nos estreitos o direito de passagem em trânsito a navios e aeronaves, civis ou militares, de qualquer bandeira.</t>
-        </is>
-      </c>
+          <t>Durante a passagem em trânsito pelos estreitos, os navios estrangeiros de pesquisa científica marinha e</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
     </row>
@@ -1751,17 +1743,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O direito de passagem em trânsito através de estreitos internacionais não pode ser impedido ou suspenso pelos Estados ribeirinhos em tempo de paz.</t>
+          <t>Nos estreitos utilizados para a navegação internacional que asseguram a comunicação entre espaços de alto-mar ou Zonas Econômicas Exclusivas (ZEE), garante-se o direito de passagem em trânsito a navios e aeronaves, civis ou militares.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Os Estados ribeirinhos podem suspender temporariamente o direito de passagem em trânsito nos estreitos internacionais, se houver necessidade de proteger sua segurança contra conflitos em terceiros Estados.</t>
+          <t>A "passagem em trânsito" é um direito que se aplica apenas a navios e aeronaves civis nos estreitos internacionais, enquanto os navios de guerra estão sujeitos à passagem inocente.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>O direito de passagem através de estreitos internacionais não pode ser impedido ou suspenso pelos Estados ribeirinhos em tempo de paz.</t>
+          <t>Garante-se nos estreitos o direito de passagem em trânsito a navios e aeronaves, civis ou militares, de qualquer bandeira.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1775,7 +1767,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág 37</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1785,17 +1777,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O regime de "passagem inocente" aplica-se aos estreitos usados para a navegação internacional que interliguem uma parte de alto-mar ou uma ZEE com o Mar Territorial (MT) de um Estado estrangeiro.</t>
+          <t>O direito de passagem em trânsito através de estreitos internacionais não pode ser impedido ou suspenso pelos Estados ribeirinhos em tempo de paz.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>O regime de "passagem em trânsito" é universalmente aplicado a todos os estreitos utilizados para a navegação internacional, independentemente das áreas marítimas que interligam.</t>
+          <t>Os Estados ribeirinhos podem suspender temporariamente o direito de passagem em trânsito nos estreitos internacionais, se houver necessidade de proteger sua segurança contra conflitos em terceiros Estados.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>O regime de “passagem inocente” aplica-se aos estreitos usados para a navegação internacional que interligue uma parte de alto-mar ou uma ZEE com o MT de um Estado estrangeiro.</t>
+          <t>O direito de passagem através de estreitos internacionais não pode ser impedido ou suspenso pelos Estados ribeirinhos em tempo de paz.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1819,17 +1811,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Águas arquipelágicas são aquelas encerradas pelas linhas de base de um Estado arquipélago.</t>
+          <t>O regime de "passagem inocente" aplica-se aos estreitos usados para a navegação internacional que interliguem uma parte de alto-mar ou uma ZEE com o Mar Territorial (MT) de um Estado estrangeiro.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Águas arquipelágicas são as áreas de Mar Territorial adjacentes às ilhas de um Estado arquipélago, não incluindo as águas interiores.</t>
+          <t>O regime de "passagem em trânsito" é universalmente aplicado a todos os estreitos utilizados para a navegação internacional, independentemente das áreas marítimas que interligam.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Águas arquipelágicas são aquelas encerradas pelas linhas de base de um Estado arquipélago.</t>
+          <t>O regime de “passagem inocente” aplica-se aos estreitos usados para a navegação internacional que interligue uma parte de alto-mar ou uma ZEE com o MT de um Estado estrangeiro.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1853,17 +1845,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Todos os navios e aeronaves, incluídos os navios de guerra e as aeronaves militares, gozam do direito de passagem pelas rotas marítimas arquipelágicas.</t>
+          <t>Águas arquipelágicas são aquelas encerradas pelas linhas de base de um Estado arquipélago.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Navios de guerra e aeronaves militares não gozam do direito de passagem automática pelas rotas marítimas arquipelágicas, necessitando de autorização prévia.</t>
+          <t>Águas arquipelágicas são as áreas de Mar Territorial adjacentes às ilhas de um Estado arquipélago, não incluindo as águas interiores.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Todos os navios e aeronaves, incluídos os navios de guerra e as aeronaves militares, gozam do direito de passagem pelas rotas marítimas arquipelágicas.</t>
+          <t>Águas arquipelágicas são aquelas encerradas pelas linhas de base de um Estado arquipélago.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1877,7 +1869,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág 38</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1887,17 +1879,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Na passagem pelas rotas marítimas arquipelágicas, os navios e aeronaves não podem afastar-se mais de 25 milhas náuticas para cada lado das linhas axiais que definem as rotas.</t>
+          <t>Todos os navios e aeronaves, incluídos os navios de guerra e as aeronaves militares, gozam do direito de passagem pelas rotas marítimas arquipelágicas.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A CNUDM não estabelece um limite de afastamento lateral nas rotas marítimas arquipelágicas, desde que a passagem seja contínua e rápida.</t>
+          <t>Navios de guerra e aeronaves militares não gozam do direito de passagem automática pelas rotas marítimas arquipelágicas, necessitando de autorização prévia.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Os navios e aeronaves não podem afastar-se mais de 25 milhas náuticas para cada lado das linhas axiais.</t>
+          <t>Todos os navios e aeronaves, incluídos os navios de guerra e as aeronaves militares, gozam do direito de passagem pelas rotas marítimas arquipelágicas.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1921,17 +1913,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Não existe direito de sobrevoo no espaço aéreo de águas arquipelágicas fora das rotas marítimas arquipelágicas.</t>
+          <t>Na passagem pelas rotas marítimas arquipelágicas, os navios e aeronaves não podem afastar-se mais de 25 milhas náuticas para cada lado das linhas axiais que definem as rotas.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>O direito de sobrevoo é garantido em todo o espaço aéreo sobrejacente às águas arquipelágicas, aplicando-se o regime da passagem inocente.</t>
+          <t>A CNUDM não estabelece um limite de afastamento lateral nas rotas marítimas arquipelágicas, desde que a passagem seja contínua e rápida.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Não existe direito de sobrevoo no espaço aéreo de águas arquipelágicas fora das rotas marítimas arquipelágicas.</t>
+          <t>Os navios e aeronaves não podem afastar-se mais de 25 milhas náuticas para cada lado das linhas axiais.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1945,7 +1937,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág 39</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1955,17 +1947,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Na Zona Contígua (ZC), navios e aeronaves, incluindo navios de guerra e aeronaves militares de todos os Estados, gozam da liberdade de navegação e sobrevoo.</t>
+          <t>Não existe direito de sobrevoo no espaço aéreo de águas arquipelágicas fora das rotas marítimas arquipelágicas.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A liberdade de navegação e sobrevoo na Zona Contígua (ZC) é restrita a navios e aeronaves civis, podendo o Estado costeiro proibir o trânsito de meios militares.</t>
+          <t>O direito de sobrevoo é garantido em todo o espaço aéreo sobrejacente às águas arquipelágicas, aplicando-se o regime da passagem inocente.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Navios e aeronaves de todos os Estados, incluindo navios de guerra e aeronaves militares, gozam da liberdade de navegação e sobrevoo na ZC.</t>
+          <t>Não existe direito de sobrevoo no espaço aéreo de águas arquipelágicas fora das rotas marítimas arquipelágicas.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1989,17 +1981,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode tomar medidas de fiscalização na Zona Contígua (ZC) para evitar infrações às leis aduaneiras, fiscais, de imigração ou sanitárias cometidas no seu território ou no seu Mar Territorial (MT).</t>
+          <t>Na Zona Contígua (ZC), navios e aeronaves, incluindo navios de guerra e aeronaves militares de todos os Estados, gozam da liberdade de navegação e sobrevoo.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>As medidas de fiscalização do Estado costeiro na Zona Contígua (ZC) estão limitadas à proteção de objetos arqueológicos e históricos.</t>
+          <t>A liberdade de navegação e sobrevoo na Zona Contígua (ZC) é restrita a navios e aeronaves civis, podendo o Estado costeiro proibir o trânsito de meios militares.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode tomar as medidas de fiscalização necessárias a evitar infrações às leis e regulamentos aduaneiros, fiscais, de imigração ou sanitários no seu território ou no seu MT.</t>
+          <t>Navios e aeronaves de todos os Estados, incluindo navios de guerra e aeronaves militares, gozam da liberdade de navegação e sobrevoo na ZC.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2023,17 +2015,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Na Zona Econômica Exclusiva (ZEE), navios e aeronaves, incluindo navios de guerra e aeronaves militares de todos os Estados, gozam da liberdade de navegação e sobrevoo.</t>
+          <t>O Estado costeiro pode tomar medidas de fiscalização na Zona Contígua (ZC) para evitar infrações às leis aduaneiras, fiscais, de imigração ou sanitárias cometidas no seu território ou no seu Mar Territorial (MT).</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Na Zona Econômica Exclusiva (ZEE), a liberdade de navegação e sobrevoo é garantida apenas a aeronaves civis e navios mercantes, sendo restrita para meios militares.</t>
+          <t>As medidas de fiscalização do Estado costeiro na Zona Contígua (ZC) estão limitadas à proteção de objetos arqueológicos e históricos.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Na ZEE, os navios e aeronaves, incluindo navios de guerra e aeronaves militares de todos os Estados, gozam da liberdade de navegação e sobrevoo.</t>
+          <t>O Estado costeiro pode tomar as medidas de fiscalização necessárias a evitar infrações às leis e regulamentos aduaneiros, fiscais, de imigração ou sanitários no seu território ou no seu MT.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2057,17 +2049,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Exercícios ou manobras militares na Zona Econômica Exclusiva (ZEE) que impliquem o uso de armas ou explosivos só podem ser conduzidos com autorização do Governo brasileiro.</t>
+          <t>Na Zona Econômica Exclusiva (ZEE), navios e aeronaves, incluindo navios de guerra e aeronaves militares de todos os Estados, gozam da liberdade de navegação e sobrevoo.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Manobras militares na ZEE que impliquem o uso de armas ou explosivos podem ser conduzidas livremente por qualquer Estado, desde que respeitem a segurança da navegação civil.</t>
+          <t>Na Zona Econômica Exclusiva (ZEE), a liberdade de navegação e sobrevoo é garantida apenas a aeronaves civis e navios mercantes, sendo restrita para meios militares.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Exercícios ou manobras militares nessa área, em particular as que impliquem o uso de armas ou explosivos, só podem ser conduzidas com autorização do Governo brasileiro.</t>
+          <t>Na ZEE, os navios e aeronaves, incluindo navios de guerra e aeronaves militares de todos os Estados, gozam da liberdade de navegação e sobrevoo.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2091,17 +2083,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Os Estados costeiros podem regular a pesquisa científica conduzida em áreas marinhas sob sua jurisdição, o que inclui a Zona Econômica Exclusiva (ZEE) e a Plataforma Continental (PC).</t>
+          <t>Exercícios ou manobras militares na Zona Econômica Exclusiva (ZEE) que impliquem o uso de armas ou explosivos só podem ser conduzidos com autorização do Governo brasileiro.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Os Estados costeiros não têm o direito de regular a pesquisa científica na ZEE e na PC, pois essas áreas são consideradas de livre exploração por todos os Estados.</t>
+          <t>Manobras militares na ZEE que impliquem o uso de armas ou explosivos podem ser conduzidas livremente por qualquer Estado, desde que respeitem a segurança da navegação civil.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Os Estados costeiros podem regular a pesquisa científica conduzida em áreas marinhas sob sua jurisdição, o que inclui a ZEE e a PC.</t>
+          <t>Exercícios ou manobras militares nessa área, em particular as que impliquem o uso de armas ou explosivos, só podem ser conduzidas com autorização do Governo brasileiro.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2125,17 +2117,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Em alto-mar, todos os navios e aeronaves, incluindo navios de guerra e aeronaves militares, gozam da completa liberdade de navegação e operação.</t>
+          <t>Os Estados costeiros podem regular a pesquisa científica conduzida em áreas marinhas sob sua jurisdição, o que inclui a Zona Econômica Exclusiva (ZEE) e a Plataforma Continental (PC).</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Em alto-mar, navios de guerra e aeronaves militares têm a liberdade de operação condicionada à notificação prévia de suas atividades, como exercícios de tiro.</t>
+          <t>Os Estados costeiros não têm o direito de regular a pesquisa científica na ZEE e na PC, pois essas áreas são consideradas de livre exploração por todos os Estados.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Todos os navios e aeronaves, incluindo navios de guerra e aeronaves militares, gozam da completa liberdade de navegação e operação em alto-mar.</t>
+          <t>Os Estados costeiros podem regular a pesquisa científica conduzida em áreas marinhas sob sua jurisdição, o que inclui a ZEE e a PC.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2149,7 +2141,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág 40</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2159,17 +2151,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A liberdade de navegação e sobrevoo no alto-mar e na ZEE deve ser exercida por todos os Estados, tendo em devida conta os interesses e os direitos de outros Estados.</t>
+          <t>Em alto-mar, todos os navios e aeronaves, incluindo navios de guerra e aeronaves militares, gozam da completa liberdade de navegação e operação.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>O exercício da liberdade de navegação e sobrevoo em alto-mar não está condicionado ao respeito pelos interesses de outros Estados, sendo um direito soberano.</t>
+          <t>Em alto-mar, navios de guerra e aeronaves militares têm a liberdade de operação condicionada à notificação prévia de suas atividades, como exercícios de tiro.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tais liberdades devem ser exercidas por todos os Estados, tendo em devida conta os interesses e os direitos de outros Estados.</t>
+          <t>Todos os navios e aeronaves, incluindo navios de guerra e aeronaves militares, gozam da completa liberdade de navegação e operação em alto-mar.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2193,17 +2185,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>O Estado que conduzir manobras ou testes de armas em áreas perigosas à navegação deve publicar as áreas e períodos dessas atividades, na forma de "AVISO AOS NAVEGANTES" ou "AVISO AOS AERONAVEGANTES".</t>
+          <t>A liberdade de navegação e sobrevoo no alto-mar e na ZEE deve ser exercida por todos os Estados, tendo em devida conta os interesses e os direitos de outros Estados.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A divulgação de áreas perigosas à navegação, como para testes de mísseis, é opcional e serve apenas como cortesia internacional.</t>
+          <t>O exercício da liberdade de navegação e sobrevoo em alto-mar não está condicionado ao respeito pelos interesses de outros Estados, sendo um direito soberano.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>O Estado executor deve publicar as áreas e períodos dessas atividades na forma de “AVISO AOS NAVEGANTES” ou “AVISO AOS AERONAVEGANTES”.</t>
+          <t>Tais liberdades devem ser exercidas por todos os Estados, tendo em devida conta os interesses e os direitos de outros Estados.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2227,17 +2219,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Navios e aeronaves de outros Estados não são proibidos de navegar ou sobrevoar áreas perigosas à navegação divulgadas, mas são obrigados a evitar interferir nas atividades em andamento.</t>
+          <t>O Estado que conduzir manobras ou testes de armas em áreas perigosas à navegação deve publicar as áreas e períodos dessas atividades, na forma de "AVISO AOS NAVEGANTES" ou "AVISO AOS AERONAVEGANTES".</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A publicação de uma área perigosa à navegação em águas e espaço aéreo internacionais proíbe o trânsito de navios e aeronaves de outros Estados durante o período estipulado.</t>
+          <t>A divulgação de áreas perigosas à navegação, como para testes de mísseis, é opcional e serve apenas como cortesia internacional.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Navios e aeronaves de outros Estados não são proibidos de navegar ou sobrevoar essas áreas, mas são obrigados a evitar interferir nas atividades.</t>
+          <t>O Estado executor deve publicar as áreas e períodos dessas atividades na forma de “AVISO AOS NAVEGANTES” ou “AVISO AOS AERONAVEGANTES”.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2251,7 +2243,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 41</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2261,17 +2253,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>O Tratado da Antártica de 1959 estabelece que a região será utilizada exclusivamente para fins pacíficos, sendo proibido o estabelecimento de bases e fortificações militares.</t>
+          <t>Navios e aeronaves de outros Estados não são proibidos de navegar ou sobrevoar áreas perigosas à navegação divulgadas, mas são obrigados a evitar interferir nas atividades em andamento.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>O Tratado da Antártica de 1959 proíbe testes com armamento, mas permite o estabelecimento de bases e fortificações militares para fins de apoio logístico.</t>
+          <t>A publicação de uma área perigosa à navegação em águas e espaço aéreo internacionais proíbe o trânsito de navios e aeronaves de outros Estados durante o período estipulado.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>A Antártica será utilizada exclusivamente para fins pacíficos, e nenhuma atividade de natureza militar será permitida.</t>
+          <t>Navios e aeronaves de outros Estados não são proibidos de navegar ou sobrevoar essas áreas, mas são obrigados a evitar interferir nas atividades.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2295,17 +2287,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>O Tratado de Proibição de Uso de Armas Nucleares da América Latina (Tratado de Tlatelolco) é um exemplo de tratado regional que estabelece uma zona livre de armamento nuclear.</t>
+          <t>O Tratado da Antártica de 1959 estabelece que a região será utilizada exclusivamente para fins pacíficos, sendo proibido o estabelecimento de bases e fortificações militares.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>O Tratado de Tlatelolco, embora proíba a posse de armas nucleares, permite o trânsito dessas armas na zona, desde que não sejam usadas ou estacionadas.</t>
+          <t>O Tratado da Antártica de 1959 proíbe testes com armamento, mas permite o estabelecimento de bases e fortificações militares para fins de apoio logístico.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>O Tratado de Tlatelolco é um exemplo de tratado regional para assegurar a ausência total de armas nucleares em seus respectivos territórios.</t>
+          <t>A Antártica será utilizada exclusivamente para fins pacíficos, e nenhuma atividade de natureza militar será permitida.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2329,17 +2321,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>O Estado possui soberania completa e exclusiva sobre o espaço aéreo sobrejacente ao seu território, águas interiores, Mar Territorial (MT) e águas arquipelágicas.</t>
+          <t>O Tratado de Proibição de Uso de Armas Nucleares da América Latina (Tratado de Tlatelolco) é um exemplo de tratado regional que estabelece uma zona livre de armamento nuclear.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>O Estado possui soberania completa apenas sobre seu território e águas interiores, sendo a soberania sobre o MT e as águas arquipelágicas compartilhada com o direito de passagem para aeronaves.</t>
+          <t>O Tratado de Tlatelolco, embora proíba a posse de armas nucleares, permite o trânsito dessas armas na zona, desde que não sejam usadas ou estacionadas.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>O Estado tem soberania completa e exclusiva sobre o espaço aéreo sobrejacente ao seu território, águas interiores, MT e águas arquipelágicas.</t>
+          <t>O Tratado de Tlatelolco é um exemplo de tratado regional para assegurar a ausência total de armas nucleares em seus respectivos territórios.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2363,17 +2355,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Não existe o direito de passagem inocente aplicado à aeronave em voo no espaço aéreo situado sobre o Mar Territorial (MT) ou águas arquipelágicas.</t>
+          <t>O Estado possui soberania completa e exclusiva sobre o espaço aéreo sobrejacente ao seu território, águas interiores, Mar Territorial (MT) e águas arquipelágicas.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>O direito de passagem inocente, reconhecido para a navegação marítima no MT, também se aplica às aeronaves em voo sobre o MT e águas arquipelágicas.</t>
+          <t>O Estado possui soberania completa apenas sobre seu território e águas interiores, sendo a soberania sobre o MT e as águas arquipelágicas compartilhada com o direito de passagem para aeronaves.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Não existe o direito de passagem inocente aplicado à aeronave em voo no espaço aéreo situado sobre o MT ou águas arquipelágicas.</t>
+          <t>O Estado tem soberania completa e exclusiva sobre o espaço aéreo sobrejacente ao seu território, águas interiores, MT e águas arquipelágicas.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2397,17 +2389,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Todos os Estados são livres para legislar e regulamentar sobre os voos em seu espaço aéreo nacional, com exceção do sobrevoo de estreitos internacionais e rotas marítimas arquipelágicas, a menos que haja acordo internacional.</t>
+          <t>Não existe o direito de passagem inocente aplicado à aeronave em voo no espaço aéreo situado sobre o Mar Territorial (MT) ou águas arquipelágicas.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A ICAO possui autoridade exclusiva para regulamentar todos os voos no espaço aéreo nacional, não permitindo que Estados legislem livremente sobre seus voos.</t>
+          <t>O direito de passagem inocente, reconhecido para a navegação marítima no MT, também se aplica às aeronaves em voo sobre o MT e águas arquipelágicas.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Os Estados são livres para legislar e regulamentar sobre os voos dentro de seu espaço aéreo nacional, exceto sobrevoo de estreitos internacionais e rotas marítimas arquipelágicas.</t>
+          <t>Não existe o direito de passagem inocente aplicado à aeronave em voo no espaço aéreo situado sobre o MT ou águas arquipelágicas.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2431,17 +2423,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Aeronaves em situação de emergência são consideradas em situação especial e devem ser autorizadas a entrar em espaço aéreo nacional e aterrizar.</t>
+          <t>Todos os Estados são livres para legislar e regulamentar sobre os voos em seu espaço aéreo nacional, com exceção do sobrevoo de estreitos internacionais e rotas marítimas arquipelágicas, a menos que haja acordo internacional.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Aeronaves em situação de emergência são obrigadas a seguir o mesmo procedimento de identificação e obtenção de autorização de entrada que aeronaves em voo de rotina.</t>
+          <t>A ICAO possui autoridade exclusiva para regulamentar todos os voos no espaço aéreo nacional, não permitindo que Estados legislem livremente sobre seus voos.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Aeronaves em situação de emergência são consideradas em situação especial e devem ser autorizadas a entrar em espaço aéreo e aterrizar.</t>
+          <t>Os Estados são livres para legislar e regulamentar sobre os voos dentro de seu espaço aéreo nacional, exceto sobrevoo de estreitos internacionais e rotas marítimas arquipelágicas.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2455,7 +2447,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág 42</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2465,17 +2457,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Aeronaves militares gozam do direito de passagem em trânsito sem impedimentos através do espaço aéreo situado acima de estreitos internacionais que interligam partes da ZEE ou do alto-mar.</t>
+          <t>Aeronaves em situação de emergência são consideradas em situação especial e devem ser autorizadas a entrar em espaço aéreo nacional e aterrizar.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Aeronaves militares em trânsito por estreitos internacionais são obrigadas a solicitar autorização prévia ao Estado ribeirinho, diferentemente das aeronaves civis.</t>
+          <t>Aeronaves em situação de emergência são obrigadas a seguir o mesmo procedimento de identificação e obtenção de autorização de entrada que aeronaves em voo de rotina.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Aeronaves, inclusive aeronaves militares, gozam do direito de passagem em trânsito sem impedimentos através do espaço aéreo situado acima de estreitos internacionais.</t>
+          <t>Aeronaves em situação de emergência são consideradas em situação especial e devem ser autorizadas a entrar em espaço aéreo e aterrizar.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2499,17 +2491,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>O direito de passagem em trânsito exercido pela aeronave sobre o estreito internacional não pode ser impedido ou suspenso em tempo de paz.</t>
+          <t>Aeronaves militares gozam do direito de passagem em trânsito sem impedimentos através do espaço aéreo situado acima de estreitos internacionais que interligam partes da ZEE ou do alto-mar.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>O Estado ribeirinho pode suspender temporariamente o direito de passagem em trânsito de aeronaves, mesmo em tempo de paz, se houver razões de segurança nacional.</t>
+          <t>Aeronaves militares em trânsito por estreitos internacionais são obrigadas a solicitar autorização prévia ao Estado ribeirinho, diferentemente das aeronaves civis.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>O direito de passagem em trânsito exercido pela aeronave sobre o estreito internacional não pode ser impedido ou suspenso em tempo de paz.</t>
+          <t>Aeronaves, inclusive aeronaves militares, gozam do direito de passagem em trânsito sem impedimentos através do espaço aéreo situado acima de estreitos internacionais.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2533,17 +2525,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>O direito de sobrevoo de rotas marítimas arquipelágicas para aeronaves militares é essencialmente idêntico àquele da passagem em trânsito acima de estreitos internacionais superpostos a MT.</t>
+          <t>O direito de passagem em trânsito exercido pela aeronave sobre o estreito internacional não pode ser impedido ou suspenso em tempo de paz.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>O direito de sobrevoo de rotas marítimas arquipelágicas é mais restritivo para aeronaves militares do que a passagem em trânsito em estreitos, exigindo o sobrevoo apenas na superfície.</t>
+          <t>O Estado ribeirinho pode suspender temporariamente o direito de passagem em trânsito de aeronaves, mesmo em tempo de paz, se houver razões de segurança nacional.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>O direito de sobrevoo de tais rotas marítimas é essencialmente idêntico àquele da passagem em trânsito através do espaço aéreo acima de estreitos internacionais superpostos a MT.</t>
+          <t>O direito de passagem em trânsito exercido pela aeronave sobre o estreito internacional não pode ser impedido ou suspenso em tempo de paz.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2567,17 +2559,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>O espaço aéreo internacional é aquele situado acima da Zona Contígua (ZC), Zona Econômica Exclusiva (ZEE), alto-mar e territórios não sujeitos à soberania nacional (como a Antártica).</t>
+          <t>O direito de sobrevoo de rotas marítimas arquipelágicas para aeronaves militares é essencialmente idêntico àquele da passagem em trânsito acima de estreitos internacionais superpostos a MT.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>O espaço aéreo internacional abrange apenas o espaço aéreo acima do alto-mar e territórios não sujeitos à soberania nacional, excluindo a ZC e a ZEE.</t>
+          <t>O direito de sobrevoo de rotas marítimas arquipelágicas é mais restritivo para aeronaves militares do que a passagem em trânsito em estreitos, exigindo o sobrevoo apenas na superfície.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>O espaço aéreo internacional é aquele situado acima da ZC, ZEE, alto-mar e territórios não sujeitos à soberania nacional (ex: Antártica).</t>
+          <t>O direito de sobrevoo de tais rotas marítimas é essencialmente idêntico àquele da passagem em trânsito através do espaço aéreo acima de estreitos internacionais superpostos a MT.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2601,17 +2593,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>No espaço aéreo internacional, todas as aeronaves, inclusive as militares, podem operar livremente, sem interferência de autoridades do Estado costeiro.</t>
+          <t>O espaço aéreo internacional é aquele situado acima da Zona Contígua (ZC), Zona Econômica Exclusiva (ZEE), alto-mar e territórios não sujeitos à soberania nacional (como a Antártica).</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Somente aeronaves civis podem operar livremente no espaço aéreo internacional, sendo que aeronaves militares precisam notificar o Estado costeiro mais próximo para evitar interferência.</t>
+          <t>O espaço aéreo internacional abrange apenas o espaço aéreo acima do alto-mar e territórios não sujeitos à soberania nacional, excluindo a ZC e a ZEE.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Todas as aeronaves, inclusive as militares, podem operar livremente no espaço aéreo internacional, sem interferência de autoridades do Estado costeiro.</t>
+          <t>O espaço aéreo internacional é aquele situado acima da ZC, ZEE, alto-mar e territórios não sujeitos à soberania nacional (ex: Antártica).</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2635,17 +2627,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Aeronaves militares podem se engajar em operações aéreas no espaço aéreo internacional, realizando exercícios de tiro, testes de munição e coleta de conhecimentos de inteligência.</t>
+          <t>No espaço aéreo internacional, todas as aeronaves, inclusive as militares, podem operar livremente, sem interferência de autoridades do Estado costeiro.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>As operações militares no espaço aéreo internacional estão limitadas a atividades de rotina, sendo proibida a realização de exercícios de tiro ou testes de munição para garantir a segurança da aviação civil.</t>
+          <t>Somente aeronaves civis podem operar livremente no espaço aéreo internacional, sendo que aeronaves militares precisam notificar o Estado costeiro mais próximo para evitar interferência.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Aeronaves militares podem se engajar em operações aéreas, realizando inclusive exercícios de tiro, testes de munição, operações de esclarecimento, de coleta de conhecimentos de inteligência e apoio a outras atividades navais.</t>
+          <t>Todas as aeronaves, inclusive as militares, podem operar livremente no espaço aéreo internacional, sem interferência de autoridades do Estado costeiro.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2659,7 +2651,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág 43</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2669,17 +2661,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>O Tratado multilateral da Convenção de Chicago de 1944 se aplica exclusivamente às aeronaves civis.</t>
+          <t>Aeronaves militares podem se engajar em operações aéreas no espaço aéreo internacional, realizando exercícios de tiro, testes de munição e coleta de conhecimentos de inteligência.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A Convenção de Chicago de 1944 se aplica tanto às aeronaves civis quanto às militares, embora as aeronaves militares tenham exceções em missões secretas.</t>
+          <t>As operações militares no espaço aéreo internacional estão limitadas a atividades de rotina, sendo proibida a realização de exercícios de tiro ou testes de munição para garantir a segurança da aviação civil.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Esse tratado multilateral se aplica exclusivamente às aeronaves civis, não se aplicando às aeronaves militares.</t>
+          <t>Aeronaves militares podem se engajar em operações aéreas, realizando inclusive exercícios de tiro, testes de munição, operações de esclarecimento, de coleta de conhecimentos de inteligência e apoio a outras atividades navais.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2703,17 +2695,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A Região de Informação de Voo (FIR) é uma área definida do espaço aéreo estabelecida pela ICAO que engloba tanto o espaço aéreo internacional quanto o nacional.</t>
+          <t>O Tratado multilateral da Convenção de Chicago de 1944 se aplica exclusivamente às aeronaves civis.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A Região de Informação de Voo (FIR) estabelecida pela ICAO abrange exclusivamente o espaço aéreo internacional, sendo o espaço aéreo nacional regido por regulamentação própria do Estado.</t>
+          <t>A Convenção de Chicago de 1944 se aplica tanto às aeronaves civis quanto às militares, embora as aeronaves militares tenham exceções em missões secretas.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>As FIR são estabelecidas pela ICAO para segurança da aviação civil e englobam tanto o espaço aéreo internacional como o nacional.</t>
+          <t>Esse tratado multilateral se aplica exclusivamente às aeronaves civis, não se aplicando às aeronaves militares.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2737,17 +2729,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>O Brasil exige que aeronaves militares no espaço aéreo internacional dentro de suas FIR cumpram os procedimentos da FIR, independentemente da intenção de entrar no espaço aéreo nacional.</t>
+          <t>A Região de Informação de Voo (FIR) é uma área definida do espaço aéreo estabelecida pela ICAO que engloba tanto o espaço aéreo internacional quanto o nacional.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>O Brasil exige que aeronaves militares cumpram os procedimentos da FIR brasileira no espaço aéreo internacional apenas se tiverem a intenção de entrar no espaço aéreo nacional.</t>
+          <t>A Região de Informação de Voo (FIR) estabelecida pela ICAO abrange exclusivamente o espaço aéreo internacional, sendo o espaço aéreo nacional regido por regulamentação própria do Estado.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>O Brasil exige que aeronaves militares no espaço aéreo internacional dentro de suas FIR cumpram os procedimentos da FIR, independentemente da intenção de entrar ou não em espaço aéreo nacional.</t>
+          <t>As FIR são estabelecidas pela ICAO para segurança da aviação civil e englobam tanto o espaço aéreo internacional como o nacional.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2771,17 +2763,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>O Direito Internacional não proíbe que os Estados estabeleçam Zonas de Identificação de Defesa Aérea (ADIZ) no espaço aéreo internacional.</t>
+          <t>O Brasil exige que aeronaves militares no espaço aéreo internacional dentro de suas FIR cumpram os procedimentos da FIR, independentemente da intenção de entrar no espaço aéreo nacional.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>O Direito Internacional proíbe o estabelecimento de Zonas de Identificação de Defesa Aérea (ADIZ) sobre o espaço aéreo internacional por violar a liberdade de sobrevoo.</t>
+          <t>O Brasil exige que aeronaves militares cumpram os procedimentos da FIR brasileira no espaço aéreo internacional apenas se tiverem a intenção de entrar no espaço aéreo nacional.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>O DI não proíbe que os Estados estabeleçam Zonas de Identificação de Defesa Aérea no espaço aéreo internacional.</t>
+          <t>O Brasil exige que aeronaves militares no espaço aéreo internacional dentro de suas FIR cumpram os procedimentos da FIR, independentemente da intenção de entrar ou não em espaço aéreo nacional.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2795,7 +2787,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág 44</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2805,17 +2797,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>O Brasil não reconhece o direito de o Estado costeiro aplicar procedimentos de identificação em sua zona de defesa aérea sobre aeronaves militares brasileiras que não tenham a intenção de entrar no espaço aéreo nacional daquele Estado.</t>
+          <t>O Direito Internacional não proíbe que os Estados estabeleçam Zonas de Identificação de Defesa Aérea (ADIZ) no espaço aéreo internacional.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>O Brasil reconhece o direito de o Estado costeiro aplicar procedimentos de identificação em sua zona de defesa aérea sobre aeronaves militares brasileiras, pois a ADIZ é uma condição para a aprovação de entrada.</t>
+          <t>O Direito Internacional proíbe o estabelecimento de Zonas de Identificação de Defesa Aérea (ADIZ) sobre o espaço aéreo internacional por violar a liberdade de sobrevoo.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>O Brasil não reconhece o direito de o Estado costeiro aplicar procedimentos de identificação na sua zona de identificação de defesa aérea sobre aeronaves estrangeiras que não pretendam penetrar no espaço aéreo nacional.</t>
+          <t>O DI não proíbe que os Estados estabeleçam Zonas de Identificação de Defesa Aérea no espaço aéreo internacional.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2839,17 +2831,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>No caso de repelir invasão do espaço aéreo por aeronave militar estrangeira, o Estado que assim proceder estará no exercício do direito inerente de legítima defesa.</t>
+          <t>O Brasil não reconhece o direito de o Estado costeiro aplicar procedimentos de identificação em sua zona de defesa aérea sobre aeronaves militares brasileiras que não tenham a intenção de entrar no espaço aéreo nacional daquele Estado.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A interceptação e repulsão de uma aeronave militar estrangeira invasora é considerada uma medida de segurança aérea, mas não constitui exercício de legítima defesa.</t>
+          <t>O Brasil reconhece o direito de o Estado costeiro aplicar procedimentos de identificação em sua zona de defesa aérea sobre aeronaves militares brasileiras, pois a ADIZ é uma condição para a aprovação de entrada.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>No caso de repelir invasão do espaço aéreo por aeronave militar estrangeira, o Estado que assim proceder estará no exercício do direito inerente de legítima defesa.</t>
+          <t>O Brasil não reconhece o direito de o Estado costeiro aplicar procedimentos de identificação na sua zona de identificação de defesa aérea sobre aeronaves estrangeiras que não pretendam penetrar no espaço aéreo nacional.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2873,17 +2865,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Todos os Estados devem evitar o uso de armas contra aeronaves civis, e no caso de interceptação, garantir que as vidas do pessoal a bordo e a segurança da aeronave não sejam postas em perigo.</t>
+          <t>No caso de repelir invasão do espaço aéreo por aeronave militar estrangeira, o Estado que assim proceder estará no exercício do direito inerente de legítima defesa.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A modificação da Convenção de Chicago de 1984 permite o uso de armas contra aeronaves civis que infrinjam a soberania do Estado, desde que a segurança da aeronave não seja totalmente comprometida.</t>
+          <t>A interceptação e repulsão de uma aeronave militar estrangeira invasora é considerada uma medida de segurança aérea, mas não constitui exercício de legítima defesa.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Todos os Estados devem evitar o uso de armas contra aeronaves civis, e garantir que a segurança da aeronave e a vida do pessoal a bordo não sejam postas em perigo.</t>
+          <t>No caso de repelir invasão do espaço aéreo por aeronave militar estrangeira, o Estado que assim proceder estará no exercício do direito inerente de legítima defesa.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2897,7 +2889,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág 45</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2907,17 +2899,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>O Regulamento Internacional para Evitar Abalroamento no Mar (RIPEAM) se aplica ao alto-mar, à ZEE e à ZC e também se aplica no MT, águas arquipelágicas e águas interiores, exceto se o Estado costeiro estabelecer regras distintas.</t>
+          <t>Todos os Estados devem evitar o uso de armas contra aeronaves civis, e no caso de interceptação, garantir que as vidas do pessoal a bordo e a segurança da aeronave não sejam postas em perigo.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>O RIPEAM se aplica exclusivamente ao alto-mar, ZEE e ZC, sendo que o Mar Territorial (MT) e as águas interiores são regidos inteiramente por regras nacionais obrigatórias.</t>
+          <t>A modificação da Convenção de Chicago de 1984 permite o uso de armas contra aeronaves civis que infrinjam a soberania do Estado, desde que a segurança da aeronave não seja totalmente comprometida.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>O RIPEAM se aplica ao alto-mar, à ZEE e à ZC e, exceto no caso de o Estado costeiro estabelecer regras distintas, também se aplica no MT, águas arquipelágicas e águas interiores.</t>
+          <t>Todos os Estados devem evitar o uso de armas contra aeronaves civis, e garantir que a segurança da aeronave e a vida do pessoal a bordo não sejam postas em perigo.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2931,7 +2923,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pág 47</t>
+          <t>Pág 46</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2941,21 +2933,55 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>O espaço exterior não é sujeito a reclamações de soberania e não pode ser apropriado por nenhum Estado, e o acesso a ele é livre e aberto a todos os Estados.</t>
+          <t>O Regulamento Internacional para Evitar Abalroamento no Mar (RIPEAM) se aplica ao alto-mar, à ZEE e à ZC e também se aplica no MT, águas arquipelágicas e águas interiores, exceto se o Estado costeiro estabelecer regras distintas.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>O espaço exterior é considerado patrimônio comum da humanidade, mas os Estados que investiram em tecnologia espacial podem reclamar soberania sobre os satélites naturais que alcançarem primeiro.</t>
+          <t>O RIPEAM se aplica exclusivamente ao alto-mar, ZEE e ZC, sendo que o Mar Territorial (MT) e as águas interiores são regidos inteiramente por regras nacionais obrigatórias.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>O espaço exterior não é sujeito a reclamações de soberania e não pode ser apropriado por nenhum Estado, e o acesso a ele é livre e aberto a todos os Estados.</t>
+          <t>O RIPEAM se aplica ao alto-mar, à ZEE e à ZC e, exceto no caso de o Estado costeiro estabelecer regras distintas, também se aplica no MT, águas arquipelágicas e águas interiores.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>EMA-135 – Direito do Mar</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Pág 47</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>O espaço exterior não é sujeito a reclamações de soberania e não pode ser apropriado por nenhum Estado, e o acesso a ele é livre e aberto a todos os Estados.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>O espaço exterior é considerado patrimônio comum da humanidade, mas os Estados que investiram em tecnologia espacial podem reclamar soberania sobre os satélites naturais que alcançarem primeiro.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>O espaço exterior não é sujeito a reclamações de soberania e não pode ser apropriado por nenhum Estado, e o acesso a ele é livre e aberto a todos os Estados.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
